--- a/洛谷训练计划.xlsx
+++ b/洛谷训练计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ClionProjects\ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DB5D44-BC86-470A-9529-0D07142509BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F1E0B1-D0E6-43A7-A773-2813CE9074CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +724,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -737,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -745,6 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1028,7 +1035,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1062,7 +1069,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
